--- a/pred_ohlcv/54_21/2020-01-10 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-10 BTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-26.12293217</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-31.60113217</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-53.91923217</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-61.56283217</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-76.02443217</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-124.89915802</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-132.67285802</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-130.48708563</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-128.1485793</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-132.5704793</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-116.73798968</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-115.01408968</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-111.49248398</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-104.15795697</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-96.69885076999999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-93.43259954</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-99.73189954</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-96.29522289000001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-86.08437735000001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-76.74270611000001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-66.99400611000002</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-62.85294952000002</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-58.35037735000002</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-77.35272898000002</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-69.85504320000003</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-56.72045419000003</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-54.45925441000003</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-45.52977210000003</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-32.08069406000003</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-32.98869406000003</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-24.01119406000003</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-19.42402131000003</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-36.17424945000003</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-47.48525867000004</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-43.34800102000003</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-43.70190107000003</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-46.08030107000003</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-46.86424395000003</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-45.56877263000003</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-44.45030153000003</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-44.45030153000003</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-44.40910153000003</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-43.89526610000003</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-42.97509329000003</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-43.40284076000003</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-42.86588040000003</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-42.86588040000003</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-48.48810510000003</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-41.67803498000003</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-38.56583498000003</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-46.77042153000003</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-43.25049367000003</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-54.75777619000003</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-56.51853217000003</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-59.32591104000003</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-58.65139723000003</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-80.70910309000003</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-80.70910309000003</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-86.30050309000003</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-80.82050309000003</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-80.82050309000003</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-81.32540309000004</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-82.15540309000004</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-82.93590309000004</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-83.94010309000004</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-92.05947779000003</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-110.70007779</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-220.5465359500002</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-220.5465359500002</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-217.0373359500002</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-220.9371359500002</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-223.7908359500002</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-223.5877359500002</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-222.7444359500002</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-225.2005359500002</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-225.2005359500002</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-225.4496359500002</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-226.8944359500002</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-224.3376359500002</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-224.5100359500002</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-224.3369359500002</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-224.7452359500002</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-395.8968689100006</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-387.3571689100007</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-387.2766689100006</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-388.8582381500006</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-351.8895807700006</v>
       </c>
       <c r="H1051">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-351.2394807700006</v>
       </c>
       <c r="H1052">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-349.2831807700006</v>
       </c>
       <c r="H1053">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-352.4490685000004</v>
       </c>
       <c r="H1098">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-272.8761595600003</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-272.8761595600003</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-278.5919595600003</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-279.4906595600003</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-276.2175595100003</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-275.4243595100003</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-273.1489595100003</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-273.3190595100003</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-272.2760595100003</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-270.2460595600003</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-262.3768031900003</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-252.1160031900003</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-240.1366031900003</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-249.5470492000003</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-244.3029000200003</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-243.7158000800003</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-241.5277999700003</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-244.3335205500003</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-255.4671205500003</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-257.6578205500003</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-257.8999205500003</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-272.2832609400003</v>
       </c>
       <c r="H1233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-273.1301609400003</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-273.2518609400003</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-273.5200609400003</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-380.7890497400002</v>
       </c>
       <c r="H1265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-386.9066497400002</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-389.0228497400002</v>
       </c>
       <c r="H1267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-384.9072043500002</v>
       </c>
       <c r="H1268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-385.1788908200002</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>-396.5214839600004</v>
       </c>
       <c r="H1305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>-396.8026425900003</v>
       </c>
       <c r="H1306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>-395.4827473900003</v>
       </c>
       <c r="H1307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>-395.1349703400003</v>
       </c>
       <c r="H1311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>-393.8799703400003</v>
       </c>
       <c r="H1312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>-388.5296703400003</v>
       </c>
       <c r="H1313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>-388.7357703400003</v>
       </c>
       <c r="H1314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>-389.7387703400003</v>
       </c>
       <c r="H1315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>-389.8246703400003</v>
       </c>
       <c r="H1316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>-389.7860703400003</v>
       </c>
       <c r="H1317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>-388.6674706000003</v>
       </c>
       <c r="H1318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>-385.8141706000004</v>
       </c>
       <c r="H1319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>-380.9050706000003</v>
       </c>
       <c r="H1320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>-381.4359706000003</v>
       </c>
       <c r="H1321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-10 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-10 BTC ohlcv.xlsx
@@ -2628,7 +2628,7 @@
         <v>-124.89915802</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-132.67285802</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-130.48708563</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-128.1485793</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-132.5704793</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-116.73798968</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-115.01408968</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-111.49248398</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-104.15795697</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-96.69885076999999</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-93.43259954</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-99.73189954</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-96.29522289000001</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-86.08437735000001</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-76.74270611000001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-66.99400611000002</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-62.85294952000002</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-58.35037735000002</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-77.35272898000002</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-56.72045419000003</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-32.98869406000003</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-24.01119406000003</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-19.42402131000003</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-36.17424945000003</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-47.48525867000004</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-43.34800102000003</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-43.70190107000003</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-46.08030107000003</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-46.86424395000003</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-45.56877263000003</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-44.45030153000003</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-44.45030153000003</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-44.40910153000003</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-43.89526610000003</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-42.97509329000003</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-43.40284076000003</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-42.86588040000003</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-42.86588040000003</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-48.48810510000003</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-41.67803498000003</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-38.56583498000003</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-46.77042153000003</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-43.25049367000003</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-54.75777619000003</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-56.51853217000003</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-59.32591104000003</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-58.65139723000003</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-80.70910309000003</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-80.70910309000003</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-86.30050309000003</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-80.82050309000003</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-80.82050309000003</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-220.5465359500002</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-220.5465359500002</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-217.0373359500002</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-220.9371359500002</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-223.7908359500002</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-223.5877359500002</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-222.7444359500002</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-225.2005359500002</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-225.2005359500002</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-225.4496359500002</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-226.8944359500002</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-224.3376359500002</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-224.5100359500002</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-224.3369359500002</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-224.7452359500002</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-395.8968689100006</v>
       </c>
       <c r="H989">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-387.3571689100007</v>
       </c>
       <c r="H990">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-387.2766689100006</v>
       </c>
       <c r="H992">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-388.8582381500006</v>
       </c>
       <c r="H994">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-355.3022460100006</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-351.8895807700006</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-351.2394807700006</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-349.2831807700006</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-352.0342807700006</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-350.3111455000006</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-347.1315455000006</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-344.5559455000006</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-350.5795455000004</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-350.4652455000004</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-349.0837685000004</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-349.1105685000003</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-348.0637685000003</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-348.0637685000003</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-350.4443685000003</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-350.4062685000004</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-350.5447685000004</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-351.0838685000004</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-351.1063685000004</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-351.0667685000004</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-352.4414685000004</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-352.4380685000004</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-352.4520685000004</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-352.4490685000004</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-348.9148572600004</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-349.2688572600004</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-349.4557572600004</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-349.3867572600004</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-349.3867572600004</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-339.6267572600004</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-341.9694572600004</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-335.5105572600004</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-335.7350572600004</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-335.6244572600004</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-335.6382572600004</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-332.7433999600004</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-272.8761595600003</v>
       </c>
       <c r="H1191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-272.8761595600003</v>
       </c>
       <c r="H1192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-278.5919595600003</v>
       </c>
       <c r="H1193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-279.4906595600003</v>
       </c>
       <c r="H1194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-276.2175595100003</v>
       </c>
       <c r="H1195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-275.4243595100003</v>
       </c>
       <c r="H1196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-273.1489595100003</v>
       </c>
       <c r="H1197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-273.3190595100003</v>
       </c>
       <c r="H1198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-272.2760595100003</v>
       </c>
       <c r="H1199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-270.2460595600003</v>
       </c>
       <c r="H1200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-262.3768031900003</v>
       </c>
       <c r="H1201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-252.1160031900003</v>
       </c>
       <c r="H1202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-240.1366031900003</v>
       </c>
       <c r="H1203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-249.5470492000003</v>
       </c>
       <c r="H1204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-244.3029000200003</v>
       </c>
       <c r="H1205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-243.7158000800003</v>
       </c>
       <c r="H1206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-241.5277999700003</v>
       </c>
       <c r="H1207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-244.3335205500003</v>
       </c>
       <c r="H1214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-255.4671205500003</v>
       </c>
       <c r="H1215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-257.6578205500003</v>
       </c>
       <c r="H1216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-257.8999205500003</v>
       </c>
       <c r="H1217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-272.2832609400003</v>
       </c>
       <c r="H1233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-273.1301609400003</v>
       </c>
       <c r="H1234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-273.2518609400003</v>
       </c>
       <c r="H1235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-273.5200609400003</v>
       </c>
       <c r="H1236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-380.7890497400002</v>
       </c>
       <c r="H1265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-386.9066497400002</v>
       </c>
       <c r="H1266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-389.0228497400002</v>
       </c>
       <c r="H1267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-384.9072043500002</v>
       </c>
       <c r="H1268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-385.1788908200002</v>
       </c>
       <c r="H1269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>-396.5214839600004</v>
       </c>
       <c r="H1305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>-396.8026425900003</v>
       </c>
       <c r="H1306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>-395.4827473900003</v>
       </c>
       <c r="H1307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>-395.9464703400003</v>
       </c>
       <c r="H1308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>-393.8810703400003</v>
       </c>
       <c r="H1309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34452,7 +34452,7 @@
         <v>-394.1481703400003</v>
       </c>
       <c r="H1310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1311" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>-395.1349703400003</v>
       </c>
       <c r="H1311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>-393.8799703400003</v>
       </c>
       <c r="H1312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>-388.5296703400003</v>
       </c>
       <c r="H1313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>-388.7357703400003</v>
       </c>
       <c r="H1314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>-389.7387703400003</v>
       </c>
       <c r="H1315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>-389.8246703400003</v>
       </c>
       <c r="H1316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>-389.7860703400003</v>
       </c>
       <c r="H1317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>-388.6674706000003</v>
       </c>
       <c r="H1318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>-385.8141706000004</v>
       </c>
       <c r="H1319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>-380.9050706000003</v>
       </c>
       <c r="H1320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>-381.4359706000003</v>
       </c>
       <c r="H1321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>-381.4119706000003</v>
       </c>
       <c r="H1322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>-381.4119706000003</v>
       </c>
       <c r="H1323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>-381.2055706000003</v>
       </c>
       <c r="H1324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-384.9376474500003</v>
       </c>
       <c r="H1328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>-384.9185443800003</v>
       </c>
       <c r="H1329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>-384.6982097500003</v>
       </c>
       <c r="H1330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>-384.9969097500003</v>
       </c>
       <c r="H1331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>-385.2858097500003</v>
       </c>
       <c r="H1332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35050,7 +35050,7 @@
         <v>-385.2858097500003</v>
       </c>
       <c r="H1333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1334" spans="1:8">
@@ -35076,7 +35076,7 @@
         <v>-384.6416097500003</v>
       </c>
       <c r="H1334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1335" spans="1:8">
@@ -35102,7 +35102,7 @@
         <v>-384.6075097500002</v>
       </c>
       <c r="H1335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1336" spans="1:8">
@@ -35154,7 +35154,7 @@
         <v>-384.3630442000003</v>
       </c>
       <c r="H1337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1338" spans="1:8">
@@ -35180,7 +35180,7 @@
         <v>-383.8059442000003</v>
       </c>
       <c r="H1338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1339" spans="1:8">
@@ -35206,7 +35206,7 @@
         <v>-384.0019442000003</v>
       </c>
       <c r="H1339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1340" spans="1:8">
@@ -35440,7 +35440,7 @@
         <v>-376.3383782600004</v>
       </c>
       <c r="H1348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
